--- a/data/pca/factorExposure/factorExposure_2018-12-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.09579674075919993</v>
+        <v>-0.06100405133215108</v>
       </c>
       <c r="C2">
-        <v>0.02740866159610713</v>
+        <v>-0.03172787457035636</v>
       </c>
       <c r="D2">
-        <v>-0.06323452454179021</v>
+        <v>-0.01432814614216008</v>
       </c>
       <c r="E2">
-        <v>-0.01952921320098806</v>
+        <v>0.033027959800793</v>
       </c>
       <c r="F2">
-        <v>0.1225927010246025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1203771808221679</v>
+      </c>
+      <c r="G2">
+        <v>0.0630661086671723</v>
+      </c>
+      <c r="H2">
+        <v>-0.06342325965220942</v>
+      </c>
+      <c r="I2">
+        <v>-0.1140923785303285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1959427245036078</v>
+        <v>-0.1409392423221015</v>
       </c>
       <c r="C3">
-        <v>-0.113119203123743</v>
+        <v>-0.09858503396447303</v>
       </c>
       <c r="D3">
-        <v>-0.1091019638406304</v>
+        <v>0.01614643010509243</v>
       </c>
       <c r="E3">
-        <v>0.009222010460350124</v>
+        <v>-0.03189379242942591</v>
       </c>
       <c r="F3">
-        <v>0.3901630876123324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.385101644734765</v>
+      </c>
+      <c r="G3">
+        <v>0.2768109297488985</v>
+      </c>
+      <c r="H3">
+        <v>-0.1195077150574321</v>
+      </c>
+      <c r="I3">
+        <v>-0.3690266804640603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.08594964567944821</v>
+        <v>-0.06535967506988259</v>
       </c>
       <c r="C4">
-        <v>-0.01000678205968747</v>
+        <v>-0.04546448019335553</v>
       </c>
       <c r="D4">
-        <v>-0.0642925612405803</v>
+        <v>0.0208142281977419</v>
       </c>
       <c r="E4">
-        <v>0.03162984069176834</v>
+        <v>0.03859492508128037</v>
       </c>
       <c r="F4">
-        <v>0.07478298086552755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07776976834819993</v>
+      </c>
+      <c r="G4">
+        <v>0.02354640263620696</v>
+      </c>
+      <c r="H4">
+        <v>-0.04614605182319546</v>
+      </c>
+      <c r="I4">
+        <v>-0.06406808288185062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02683801551320725</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.0122705388840244</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005834861632496892</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.007477418330697059</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.008377433354751058</v>
+      </c>
+      <c r="G6">
+        <v>-0.02081735876343714</v>
+      </c>
+      <c r="H6">
+        <v>0.01694091227947568</v>
+      </c>
+      <c r="I6">
+        <v>-0.008403137563067502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04082719546121468</v>
+        <v>-0.03273858435251375</v>
       </c>
       <c r="C7">
-        <v>0.004681907373301423</v>
+        <v>-0.01366294944955317</v>
       </c>
       <c r="D7">
-        <v>-0.04733850930197126</v>
+        <v>0.03739180085053428</v>
       </c>
       <c r="E7">
-        <v>-0.004025738908464366</v>
+        <v>0.02765771322950004</v>
       </c>
       <c r="F7">
-        <v>0.0818060035073897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05274834920893794</v>
+      </c>
+      <c r="G7">
+        <v>0.05053582309359098</v>
+      </c>
+      <c r="H7">
+        <v>-0.004075273336103285</v>
+      </c>
+      <c r="I7">
+        <v>-0.03863168590800995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04690503051699812</v>
+        <v>-0.0204839460668038</v>
       </c>
       <c r="C8">
-        <v>-0.03164230061863981</v>
+        <v>-0.0475876034578355</v>
       </c>
       <c r="D8">
-        <v>-0.04819962686379934</v>
+        <v>0.017786747123744</v>
       </c>
       <c r="E8">
-        <v>0.02793030947374093</v>
+        <v>0.0144613142439871</v>
       </c>
       <c r="F8">
-        <v>0.06932996596991636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07154667234985555</v>
+      </c>
+      <c r="G8">
+        <v>0.04570440908857676</v>
+      </c>
+      <c r="H8">
+        <v>-0.04013488794342005</v>
+      </c>
+      <c r="I8">
+        <v>-0.06138385814194171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0715602125575151</v>
+        <v>-0.05493813215263209</v>
       </c>
       <c r="C9">
-        <v>0.0008029278901159531</v>
+        <v>-0.03831935610123024</v>
       </c>
       <c r="D9">
-        <v>-0.06087388781480213</v>
+        <v>0.02239196297074908</v>
       </c>
       <c r="E9">
-        <v>0.0455505081341463</v>
+        <v>0.03378064156754596</v>
       </c>
       <c r="F9">
-        <v>0.06226517420688596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07954752292202871</v>
+      </c>
+      <c r="G9">
+        <v>0.01936884151684323</v>
+      </c>
+      <c r="H9">
+        <v>-0.04554642278485828</v>
+      </c>
+      <c r="I9">
+        <v>-0.04029281958310775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03814001557423498</v>
+        <v>-0.046426473947606</v>
       </c>
       <c r="C10">
-        <v>0.1090133010270762</v>
+        <v>0.1607298555019762</v>
       </c>
       <c r="D10">
-        <v>0.1174263274607488</v>
+        <v>-0.03512641692545389</v>
       </c>
       <c r="E10">
-        <v>-0.04823603175967334</v>
+        <v>-0.03085859789928093</v>
       </c>
       <c r="F10">
-        <v>0.06512433557961483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05908019987128421</v>
+      </c>
+      <c r="G10">
+        <v>0.02459042307006558</v>
+      </c>
+      <c r="H10">
+        <v>-0.03790181348111685</v>
+      </c>
+      <c r="I10">
+        <v>-0.03452167297879795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0534912323632868</v>
+        <v>-0.04466640399445156</v>
       </c>
       <c r="C11">
-        <v>-0.009088518545026252</v>
+        <v>-0.03355989227387556</v>
       </c>
       <c r="D11">
-        <v>-0.02010184425017424</v>
+        <v>-0.001274728912418058</v>
       </c>
       <c r="E11">
-        <v>-0.00517206004638584</v>
+        <v>0.007685749220649273</v>
       </c>
       <c r="F11">
-        <v>0.0488761013442708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03805896748906317</v>
+      </c>
+      <c r="G11">
+        <v>-0.0004074560706460496</v>
+      </c>
+      <c r="H11">
+        <v>-0.01355855763631177</v>
+      </c>
+      <c r="I11">
+        <v>-0.03794779685818304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0459399242696037</v>
+        <v>-0.04237933373380798</v>
       </c>
       <c r="C12">
-        <v>-0.01228938362338065</v>
+        <v>-0.03232999590482579</v>
       </c>
       <c r="D12">
-        <v>-0.02233276556934083</v>
+        <v>0.01130043803086885</v>
       </c>
       <c r="E12">
-        <v>0.01378007355659057</v>
+        <v>0.01039774800692456</v>
       </c>
       <c r="F12">
-        <v>0.03992995841882072</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01621394611139897</v>
+      </c>
+      <c r="G12">
+        <v>0.005574019483170213</v>
+      </c>
+      <c r="H12">
+        <v>-0.006316991989834119</v>
+      </c>
+      <c r="I12">
+        <v>-0.02745047350227988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.05367797596960017</v>
+        <v>-0.03875602349102263</v>
       </c>
       <c r="C13">
-        <v>-0.009743045006232189</v>
+        <v>-0.02863533491126118</v>
       </c>
       <c r="D13">
-        <v>-0.03240636483141795</v>
+        <v>-0.01159663688441249</v>
       </c>
       <c r="E13">
-        <v>-0.03007694345177273</v>
+        <v>0.007221431362702002</v>
       </c>
       <c r="F13">
-        <v>0.1131190496632367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09670269121990868</v>
+      </c>
+      <c r="G13">
+        <v>0.03598905245442133</v>
+      </c>
+      <c r="H13">
+        <v>-0.03556281067957993</v>
+      </c>
+      <c r="I13">
+        <v>-0.0782535002672556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02983813268134316</v>
+        <v>-0.02336267514642253</v>
       </c>
       <c r="C14">
-        <v>-0.0008081005733096951</v>
+        <v>-0.02175625414736903</v>
       </c>
       <c r="D14">
-        <v>-0.04520896868869233</v>
+        <v>0.008478211672378734</v>
       </c>
       <c r="E14">
-        <v>0.005650184766739857</v>
+        <v>0.02793736095265603</v>
       </c>
       <c r="F14">
-        <v>0.03335329938761773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03904317243243624</v>
+      </c>
+      <c r="G14">
+        <v>0.05490375309140523</v>
+      </c>
+      <c r="H14">
+        <v>-0.02091991333821486</v>
+      </c>
+      <c r="I14">
+        <v>-0.01768433637195536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04454444319520926</v>
+        <v>-0.03841465130623116</v>
       </c>
       <c r="C16">
-        <v>-0.0165024281719904</v>
+        <v>-0.0345548659799858</v>
       </c>
       <c r="D16">
-        <v>-0.01807179351974222</v>
+        <v>0.004661715173841527</v>
       </c>
       <c r="E16">
-        <v>0.0001569698115878505</v>
+        <v>0.005179819455791558</v>
       </c>
       <c r="F16">
-        <v>0.03906370218238786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03356837952126398</v>
+      </c>
+      <c r="G16">
+        <v>0.006123162757033295</v>
+      </c>
+      <c r="H16">
+        <v>-0.007957735268588895</v>
+      </c>
+      <c r="I16">
+        <v>-0.03834294129880892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06233751483995596</v>
+        <v>-0.0490857006380003</v>
       </c>
       <c r="C19">
-        <v>-0.03300019715284125</v>
+        <v>-0.04622658886686495</v>
       </c>
       <c r="D19">
-        <v>-0.04049448637285367</v>
+        <v>0.002582333591194677</v>
       </c>
       <c r="E19">
-        <v>-0.001022406994799029</v>
+        <v>0.01278199736652071</v>
       </c>
       <c r="F19">
-        <v>0.09892403028959536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09509428163321997</v>
+      </c>
+      <c r="G19">
+        <v>0.05198547816692712</v>
+      </c>
+      <c r="H19">
+        <v>-0.02982973788124262</v>
+      </c>
+      <c r="I19">
+        <v>-0.07589082480713938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02700808191904613</v>
+        <v>-0.01612731299821228</v>
       </c>
       <c r="C20">
-        <v>-0.007609538640701171</v>
+        <v>-0.02605999724042745</v>
       </c>
       <c r="D20">
-        <v>-0.04928773418048421</v>
+        <v>0.007924515147519243</v>
       </c>
       <c r="E20">
-        <v>0.01883176107654895</v>
+        <v>0.01918314375643311</v>
       </c>
       <c r="F20">
-        <v>0.0714813414398657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06058672931431201</v>
+      </c>
+      <c r="G20">
+        <v>0.06620817178961676</v>
+      </c>
+      <c r="H20">
+        <v>-0.01659372303814733</v>
+      </c>
+      <c r="I20">
+        <v>-0.06989871978551515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02643176509233967</v>
+        <v>-0.02916558819512525</v>
       </c>
       <c r="C21">
-        <v>-0.02458876146134583</v>
+        <v>-0.02334932740070903</v>
       </c>
       <c r="D21">
-        <v>-0.02594800214079726</v>
+        <v>0.01404048655194122</v>
       </c>
       <c r="E21">
-        <v>-0.008137460440459357</v>
+        <v>0.001922713647698377</v>
       </c>
       <c r="F21">
-        <v>0.0949309396940074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07304863441218988</v>
+      </c>
+      <c r="G21">
+        <v>0.007676126701911465</v>
+      </c>
+      <c r="H21">
+        <v>-0.05131401616509759</v>
+      </c>
+      <c r="I21">
+        <v>-0.008499660099523758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04362865507534075</v>
+        <v>-0.03691128049533345</v>
       </c>
       <c r="C24">
-        <v>-0.0110099492321211</v>
+        <v>-0.0300053043772417</v>
       </c>
       <c r="D24">
-        <v>-0.02147295922454075</v>
+        <v>0.004342376040428483</v>
       </c>
       <c r="E24">
-        <v>0.003488656638548893</v>
+        <v>0.007713810447635179</v>
       </c>
       <c r="F24">
-        <v>0.04987860684467983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03602575482401722</v>
+      </c>
+      <c r="G24">
+        <v>0.002205358725802511</v>
+      </c>
+      <c r="H24">
+        <v>-0.008169117619278335</v>
+      </c>
+      <c r="I24">
+        <v>-0.04045017374653539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04704432051504663</v>
+        <v>-0.04536917914397125</v>
       </c>
       <c r="C25">
-        <v>-0.008335660356532215</v>
+        <v>-0.02704074014006193</v>
       </c>
       <c r="D25">
-        <v>-0.01940921141110769</v>
+        <v>0.002541596307819922</v>
       </c>
       <c r="E25">
-        <v>0.002431799192356669</v>
+        <v>0.008331135757140591</v>
       </c>
       <c r="F25">
-        <v>0.04761657225275977</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04506214818110782</v>
+      </c>
+      <c r="G25">
+        <v>-0.004845660025320306</v>
+      </c>
+      <c r="H25">
+        <v>-0.0134052878112242</v>
+      </c>
+      <c r="I25">
+        <v>-0.03471911217650977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02601532843212</v>
+        <v>-0.01375032018702413</v>
       </c>
       <c r="C26">
-        <v>-0.02202220280445909</v>
+        <v>-0.03155514483299242</v>
       </c>
       <c r="D26">
-        <v>-0.03858018198807881</v>
+        <v>-0.0004426120174196262</v>
       </c>
       <c r="E26">
-        <v>-0.01887649356882818</v>
+        <v>0.001046052707181952</v>
       </c>
       <c r="F26">
-        <v>0.04224903099044847</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04570234162006263</v>
+      </c>
+      <c r="G26">
+        <v>0.03203166982276385</v>
+      </c>
+      <c r="H26">
+        <v>-0.01244142959114627</v>
+      </c>
+      <c r="I26">
+        <v>-0.03781279577331195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1087431067991655</v>
+        <v>-0.06251019969216949</v>
       </c>
       <c r="C27">
-        <v>0.00914834006240935</v>
+        <v>-0.02044519812200611</v>
       </c>
       <c r="D27">
-        <v>-0.04340911926943359</v>
+        <v>0.005896727315420442</v>
       </c>
       <c r="E27">
-        <v>0.0259403751253707</v>
+        <v>0.02552155035410947</v>
       </c>
       <c r="F27">
-        <v>0.06073436673077329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04858416658053231</v>
+      </c>
+      <c r="G27">
+        <v>0.0301553334764852</v>
+      </c>
+      <c r="H27">
+        <v>-0.02717671124768132</v>
+      </c>
+      <c r="I27">
+        <v>-0.02012181221942281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04324587586078022</v>
+        <v>-0.0643978547623595</v>
       </c>
       <c r="C28">
-        <v>0.1582852414777359</v>
+        <v>0.246251765809489</v>
       </c>
       <c r="D28">
-        <v>0.1929588774029803</v>
+        <v>-0.04426861036298842</v>
       </c>
       <c r="E28">
-        <v>-0.05375002248310053</v>
+        <v>-0.04658254597484322</v>
       </c>
       <c r="F28">
-        <v>0.03168717113782012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04069839356329888</v>
+      </c>
+      <c r="G28">
+        <v>0.0461663747874644</v>
+      </c>
+      <c r="H28">
+        <v>-0.03879255538876426</v>
+      </c>
+      <c r="I28">
+        <v>-0.05267562138676363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02907098229206632</v>
+        <v>-0.02260026430109605</v>
       </c>
       <c r="C29">
-        <v>-0.001107414597906563</v>
+        <v>-0.02141214027372429</v>
       </c>
       <c r="D29">
-        <v>-0.0449917831423036</v>
+        <v>0.01194876458437451</v>
       </c>
       <c r="E29">
-        <v>0.01910167186685711</v>
+        <v>0.03030898176621845</v>
       </c>
       <c r="F29">
-        <v>0.02836324802714879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03589135590207299</v>
+      </c>
+      <c r="G29">
+        <v>0.05415296787927512</v>
+      </c>
+      <c r="H29">
+        <v>-0.02604181818836651</v>
+      </c>
+      <c r="I29">
+        <v>-0.000711076183276781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.103968927685927</v>
+        <v>-0.08414574460813157</v>
       </c>
       <c r="C30">
-        <v>0.009938433389905906</v>
+        <v>-0.05626155618669301</v>
       </c>
       <c r="D30">
-        <v>-0.05637165576574511</v>
+        <v>-0.03203198480295204</v>
       </c>
       <c r="E30">
-        <v>-0.002064208079913883</v>
+        <v>0.03248368873356115</v>
       </c>
       <c r="F30">
-        <v>0.1070020640172886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1020984032818013</v>
+      </c>
+      <c r="G30">
+        <v>0.01027256283706233</v>
+      </c>
+      <c r="H30">
+        <v>0.003910045810117754</v>
+      </c>
+      <c r="I30">
+        <v>-0.02631122825878973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06534442533652933</v>
+        <v>-0.05879163852344808</v>
       </c>
       <c r="C31">
-        <v>-0.002386991246146054</v>
+        <v>-0.02660262555272424</v>
       </c>
       <c r="D31">
-        <v>-0.04222866878001486</v>
+        <v>-0.004770652366968085</v>
       </c>
       <c r="E31">
-        <v>-0.02943713332467737</v>
+        <v>0.02380997495875377</v>
       </c>
       <c r="F31">
-        <v>-0.0236403540731737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001318645714720164</v>
+      </c>
+      <c r="G31">
+        <v>0.04224577036697615</v>
+      </c>
+      <c r="H31">
+        <v>-0.0462014139030095</v>
+      </c>
+      <c r="I31">
+        <v>-0.01353787052294795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06304837873390402</v>
+        <v>-0.03669089563654181</v>
       </c>
       <c r="C32">
-        <v>-0.016965203469963</v>
+        <v>-0.04045537244164796</v>
       </c>
       <c r="D32">
-        <v>-0.04796442594334647</v>
+        <v>0.02138477659616275</v>
       </c>
       <c r="E32">
-        <v>0.01512456644838671</v>
+        <v>0.03210152244849428</v>
       </c>
       <c r="F32">
-        <v>0.1007055056369998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08194525728970968</v>
+      </c>
+      <c r="G32">
+        <v>0.03376041601222738</v>
+      </c>
+      <c r="H32">
+        <v>-0.03192418990535131</v>
+      </c>
+      <c r="I32">
+        <v>-0.06315718726963049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06037825442249757</v>
+        <v>-0.04897418852836309</v>
       </c>
       <c r="C33">
-        <v>-0.03235508686358855</v>
+        <v>-0.05738277840007019</v>
       </c>
       <c r="D33">
-        <v>-0.06136604219529797</v>
+        <v>-0.01168439556295576</v>
       </c>
       <c r="E33">
-        <v>-0.008839653453635703</v>
+        <v>0.005057892701717102</v>
       </c>
       <c r="F33">
-        <v>0.07030067137604254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07273031135361369</v>
+      </c>
+      <c r="G33">
+        <v>0.03976019540041619</v>
+      </c>
+      <c r="H33">
+        <v>-0.03997032689602902</v>
+      </c>
+      <c r="I33">
+        <v>-0.03849940105385075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04618140919439182</v>
+        <v>-0.0401588478767025</v>
       </c>
       <c r="C34">
-        <v>-0.008172059312914291</v>
+        <v>-0.03563295480203613</v>
       </c>
       <c r="D34">
-        <v>-0.02953399745962425</v>
+        <v>0.01025717465901244</v>
       </c>
       <c r="E34">
-        <v>0.005873681060194333</v>
+        <v>0.01739541784303517</v>
       </c>
       <c r="F34">
-        <v>0.04201355574862298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03708257649497101</v>
+      </c>
+      <c r="G34">
+        <v>0.001889511158124776</v>
+      </c>
+      <c r="H34">
+        <v>-0.01008889038523079</v>
+      </c>
+      <c r="I34">
+        <v>-0.03962078885670991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01905863890710139</v>
+        <v>-0.01660687818940637</v>
       </c>
       <c r="C36">
-        <v>0.003829240453070007</v>
+        <v>-0.005990693789069223</v>
       </c>
       <c r="D36">
-        <v>-0.01555953868625594</v>
+        <v>0.003994822583340307</v>
       </c>
       <c r="E36">
-        <v>0.004179660763507885</v>
+        <v>0.01089923411702822</v>
       </c>
       <c r="F36">
-        <v>0.02427806108665189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02731455136499931</v>
+      </c>
+      <c r="G36">
+        <v>0.03077949122770853</v>
+      </c>
+      <c r="H36">
+        <v>-0.02724949865838146</v>
+      </c>
+      <c r="I36">
+        <v>0.007892217377620232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.03358132328380773</v>
+        <v>-0.03042131438269506</v>
       </c>
       <c r="C38">
-        <v>0.001125122814828948</v>
+        <v>-0.01292699426500211</v>
       </c>
       <c r="D38">
-        <v>-0.01547779894058315</v>
+        <v>0.005403798399486719</v>
       </c>
       <c r="E38">
-        <v>0.01627334990298722</v>
+        <v>0.005124201948728469</v>
       </c>
       <c r="F38">
-        <v>0.0236238590740383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04829328746206858</v>
+      </c>
+      <c r="G38">
+        <v>0.01419224752513048</v>
+      </c>
+      <c r="H38">
+        <v>-0.03140714416795198</v>
+      </c>
+      <c r="I38">
+        <v>0.005846493012682883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06694849559036647</v>
+        <v>-0.05039171353343458</v>
       </c>
       <c r="C39">
-        <v>-0.00714870603629456</v>
+        <v>-0.05005670834593686</v>
       </c>
       <c r="D39">
-        <v>-0.03173910518249593</v>
+        <v>0.00150442411303594</v>
       </c>
       <c r="E39">
-        <v>-0.01150989100790863</v>
+        <v>0.01837772801497709</v>
       </c>
       <c r="F39">
-        <v>0.04169914095878771</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0567063742796456</v>
+      </c>
+      <c r="G39">
+        <v>-0.01034467815578578</v>
+      </c>
+      <c r="H39">
+        <v>-0.0228113531837508</v>
+      </c>
+      <c r="I39">
+        <v>-0.02367296301238583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.06627528585237376</v>
+        <v>-0.05128531937381781</v>
       </c>
       <c r="C40">
-        <v>0.009189720541462764</v>
+        <v>-0.04464182090529729</v>
       </c>
       <c r="D40">
-        <v>-0.06027578271658682</v>
+        <v>-0.01647494595532624</v>
       </c>
       <c r="E40">
-        <v>-0.03450031933642708</v>
+        <v>0.02242495372916895</v>
       </c>
       <c r="F40">
-        <v>0.1065307477275372</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08794075309521622</v>
+      </c>
+      <c r="G40">
+        <v>0.03765490372836305</v>
+      </c>
+      <c r="H40">
+        <v>-0.03617631049910158</v>
+      </c>
+      <c r="I40">
+        <v>-0.117909080792806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.002687512118032159</v>
+        <v>-0.002189972279518744</v>
       </c>
       <c r="C41">
-        <v>-0.008389841219864469</v>
+        <v>-0.009533157973356542</v>
       </c>
       <c r="D41">
-        <v>-0.03340800623852112</v>
+        <v>-3.257925951834871e-05</v>
       </c>
       <c r="E41">
-        <v>0.003616931314872975</v>
+        <v>0.01007188981344549</v>
       </c>
       <c r="F41">
-        <v>-0.005367421132092405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.009232252400405219</v>
+      </c>
+      <c r="G41">
+        <v>0.04232311985785242</v>
+      </c>
+      <c r="H41">
+        <v>-0.04244201264442964</v>
+      </c>
+      <c r="I41">
+        <v>-0.001927727023297916</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2122787411218824</v>
+        <v>-0.2088574329858214</v>
       </c>
       <c r="C42">
-        <v>-0.7905312370542732</v>
+        <v>-0.2543192476162805</v>
       </c>
       <c r="D42">
-        <v>0.4806136848753224</v>
+        <v>0.00942072137311132</v>
       </c>
       <c r="E42">
-        <v>-0.2203560338897514</v>
+        <v>-0.9104931458987936</v>
       </c>
       <c r="F42">
-        <v>-0.08401282326045922</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1804168436771533</v>
+      </c>
+      <c r="G42">
+        <v>0.0005453614769080264</v>
+      </c>
+      <c r="H42">
+        <v>0.006100798321498085</v>
+      </c>
+      <c r="I42">
+        <v>-0.03390997788578794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0003287660039206174</v>
+        <v>-0.005601077009896679</v>
       </c>
       <c r="C43">
-        <v>-0.01076224126626054</v>
+        <v>-0.01212666903867249</v>
       </c>
       <c r="D43">
-        <v>-0.03397751920752277</v>
+        <v>-0.002276197297552293</v>
       </c>
       <c r="E43">
-        <v>-0.0001478477476046426</v>
+        <v>0.007996760700867734</v>
       </c>
       <c r="F43">
-        <v>0.0224428561195773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02012313264952629</v>
+      </c>
+      <c r="G43">
+        <v>0.03586683150996901</v>
+      </c>
+      <c r="H43">
+        <v>-0.0243998598796039</v>
+      </c>
+      <c r="I43">
+        <v>-0.01073768727711849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03781662755647241</v>
+        <v>-0.02419818303310153</v>
       </c>
       <c r="C44">
-        <v>-0.02153733259510028</v>
+        <v>-0.03873099287224577</v>
       </c>
       <c r="D44">
-        <v>-0.05614189930819691</v>
+        <v>0.006106189701601021</v>
       </c>
       <c r="E44">
-        <v>-0.003442594544460668</v>
+        <v>0.01069007880166581</v>
       </c>
       <c r="F44">
-        <v>0.1226412117665054</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1196009601446627</v>
+      </c>
+      <c r="G44">
+        <v>0.08628644891503442</v>
+      </c>
+      <c r="H44">
+        <v>-0.0627433588678791</v>
+      </c>
+      <c r="I44">
+        <v>-0.05104569764770339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03278008722521496</v>
+        <v>-0.02411117393176097</v>
       </c>
       <c r="C46">
-        <v>-0.009586402023482789</v>
+        <v>-0.03715627412280571</v>
       </c>
       <c r="D46">
-        <v>-0.04665555940839882</v>
+        <v>0.0007525018606871933</v>
       </c>
       <c r="E46">
-        <v>0.0006187353914624777</v>
+        <v>0.02908824235768624</v>
       </c>
       <c r="F46">
-        <v>0.01961556785986319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04700174542654158</v>
+      </c>
+      <c r="G46">
+        <v>0.05378155786926332</v>
+      </c>
+      <c r="H46">
+        <v>-0.02798345191847676</v>
+      </c>
+      <c r="I46">
+        <v>-0.005174831700136109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09256859747565971</v>
+        <v>-0.08591382477193446</v>
       </c>
       <c r="C47">
-        <v>0.002060714917608964</v>
+        <v>-0.02782890272692113</v>
       </c>
       <c r="D47">
-        <v>-0.04383710176927747</v>
+        <v>0.0007144926465745492</v>
       </c>
       <c r="E47">
-        <v>0.006726466316901443</v>
+        <v>0.028737865888496</v>
       </c>
       <c r="F47">
-        <v>-0.01485428391803088</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01655351795484801</v>
+      </c>
+      <c r="G47">
+        <v>0.06664798592204513</v>
+      </c>
+      <c r="H47">
+        <v>-0.0389229990485891</v>
+      </c>
+      <c r="I47">
+        <v>-0.02566951303285124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01934906807937148</v>
+        <v>-0.02039768758748841</v>
       </c>
       <c r="C48">
-        <v>-0.005615716404831331</v>
+        <v>-0.01839590313703669</v>
       </c>
       <c r="D48">
-        <v>-0.03333760654189893</v>
+        <v>0.003018622934757063</v>
       </c>
       <c r="E48">
-        <v>0.001113861956949062</v>
+        <v>0.01429371372218511</v>
       </c>
       <c r="F48">
-        <v>0.02922484401591596</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02801717863262886</v>
+      </c>
+      <c r="G48">
+        <v>0.02224314881002391</v>
+      </c>
+      <c r="H48">
+        <v>-0.0198347859109964</v>
+      </c>
+      <c r="I48">
+        <v>-0.01042911716528265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08713099581167148</v>
+        <v>-0.08388326091071419</v>
       </c>
       <c r="C50">
-        <v>-0.01290681613590422</v>
+        <v>-0.04343566764989404</v>
       </c>
       <c r="D50">
-        <v>-0.04925674793573895</v>
+        <v>0.01715720890493412</v>
       </c>
       <c r="E50">
-        <v>-0.005643584667695311</v>
+        <v>0.02368968383432171</v>
       </c>
       <c r="F50">
-        <v>-0.02501744200616994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01133636289029215</v>
+      </c>
+      <c r="G50">
+        <v>0.04302948120444854</v>
+      </c>
+      <c r="H50">
+        <v>0.002904532698256146</v>
+      </c>
+      <c r="I50">
+        <v>0.009582615874866683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05712752034207698</v>
+        <v>-0.03961630902517869</v>
       </c>
       <c r="C51">
-        <v>0.01480677432161792</v>
+        <v>0.002764802681250212</v>
       </c>
       <c r="D51">
-        <v>-0.01761655551848895</v>
+        <v>-0.01314022420851259</v>
       </c>
       <c r="E51">
-        <v>-0.03782727919063032</v>
+        <v>0.01022854170864051</v>
       </c>
       <c r="F51">
-        <v>0.05462857100676213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08218514327427079</v>
+      </c>
+      <c r="G51">
+        <v>0.06397276775014601</v>
+      </c>
+      <c r="H51">
+        <v>-0.06052257287092005</v>
+      </c>
+      <c r="I51">
+        <v>-0.03879764810356169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1282160568155705</v>
+        <v>-0.1192409632263327</v>
       </c>
       <c r="C53">
-        <v>0.01128084280357195</v>
+        <v>-0.04540508244465884</v>
       </c>
       <c r="D53">
-        <v>-0.06585172416148993</v>
+        <v>0.00236370140518171</v>
       </c>
       <c r="E53">
-        <v>-0.004042399242778705</v>
+        <v>0.05226392620028829</v>
       </c>
       <c r="F53">
-        <v>-0.06734427512771779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05583313599174059</v>
+      </c>
+      <c r="G53">
+        <v>0.02687554693245815</v>
+      </c>
+      <c r="H53">
+        <v>-0.02583066682013688</v>
+      </c>
+      <c r="I53">
+        <v>-0.02677509165316295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02726295220123634</v>
+        <v>-0.02657935611077104</v>
       </c>
       <c r="C54">
-        <v>0.01054968561733183</v>
+        <v>-0.008566431811608042</v>
       </c>
       <c r="D54">
-        <v>-0.03577261670649338</v>
+        <v>0.005253405335972433</v>
       </c>
       <c r="E54">
-        <v>0.009022367386140427</v>
+        <v>0.03040685567603899</v>
       </c>
       <c r="F54">
-        <v>0.04044800610460208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03632407307247149</v>
+      </c>
+      <c r="G54">
+        <v>0.05223423475325996</v>
+      </c>
+      <c r="H54">
+        <v>-0.03835571356712133</v>
+      </c>
+      <c r="I54">
+        <v>0.002107424693536343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1052912050782065</v>
+        <v>-0.09550440530177035</v>
       </c>
       <c r="C55">
-        <v>0.01296660617613764</v>
+        <v>-0.03566282939644288</v>
       </c>
       <c r="D55">
-        <v>-0.02866206530266524</v>
+        <v>0.01870952880605091</v>
       </c>
       <c r="E55">
-        <v>0.04007167400192436</v>
+        <v>0.03793177142794267</v>
       </c>
       <c r="F55">
-        <v>-0.02929712995503283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04245768630714643</v>
+      </c>
+      <c r="G55">
+        <v>0.04287971424998406</v>
+      </c>
+      <c r="H55">
+        <v>0.007364599828105763</v>
+      </c>
+      <c r="I55">
+        <v>-0.003729491113982255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1659736231973781</v>
+        <v>-0.1608205157603511</v>
       </c>
       <c r="C56">
-        <v>0.06072279617991829</v>
+        <v>-0.03412871808301429</v>
       </c>
       <c r="D56">
-        <v>-0.06668840485167937</v>
+        <v>0.004213135857849387</v>
       </c>
       <c r="E56">
-        <v>0.02451987934111258</v>
+        <v>0.08830036068189591</v>
       </c>
       <c r="F56">
-        <v>-0.1048456539710818</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09819555587357247</v>
+      </c>
+      <c r="G56">
+        <v>-0.008715046355894238</v>
+      </c>
+      <c r="H56">
+        <v>0.02231328487047721</v>
+      </c>
+      <c r="I56">
+        <v>-0.03050815706377414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.07289169406741647</v>
+        <v>-0.05925844359054375</v>
       </c>
       <c r="C57">
-        <v>-0.006953198620894514</v>
+        <v>-0.03187598481781887</v>
       </c>
       <c r="D57">
-        <v>-0.04404323397952184</v>
+        <v>-0.01460667945900123</v>
       </c>
       <c r="E57">
-        <v>-0.02666660783722322</v>
+        <v>0.004548819167855491</v>
       </c>
       <c r="F57">
-        <v>0.06456575335441406</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06450113112015643</v>
+      </c>
+      <c r="G57">
+        <v>0.02345639462272145</v>
+      </c>
+      <c r="H57">
+        <v>-0.0198573620164074</v>
+      </c>
+      <c r="I57">
+        <v>-0.03310852739133458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2033790564020622</v>
+        <v>-0.2024225578369851</v>
       </c>
       <c r="C58">
-        <v>-0.04319471943583927</v>
+        <v>-0.1363319998263216</v>
       </c>
       <c r="D58">
-        <v>-0.0868127067608916</v>
+        <v>-0.07566119974519997</v>
       </c>
       <c r="E58">
-        <v>-0.03973975363234571</v>
+        <v>-0.03414726154350123</v>
       </c>
       <c r="F58">
-        <v>0.2355644732969413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3697863804036194</v>
+      </c>
+      <c r="G58">
+        <v>0.3162688876804998</v>
+      </c>
+      <c r="H58">
+        <v>0.2674108511608267</v>
+      </c>
+      <c r="I58">
+        <v>0.7375784255798365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.03848627444461979</v>
+        <v>-0.0626722559960108</v>
       </c>
       <c r="C59">
-        <v>0.1476033663131411</v>
+        <v>0.2005422670814154</v>
       </c>
       <c r="D59">
-        <v>0.1355648047559676</v>
+        <v>-0.05363924344685444</v>
       </c>
       <c r="E59">
-        <v>-0.04140417529096083</v>
+        <v>-0.01600256632818254</v>
       </c>
       <c r="F59">
-        <v>0.03939864478494889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.05715429175986683</v>
+      </c>
+      <c r="G59">
+        <v>-0.001484595184539443</v>
+      </c>
+      <c r="H59">
+        <v>-0.009027869037845703</v>
+      </c>
+      <c r="I59">
+        <v>-0.007410876785099988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1806184303562223</v>
+        <v>-0.1970597764002088</v>
       </c>
       <c r="C60">
-        <v>0.06862856563037054</v>
+        <v>0.04174467706735118</v>
       </c>
       <c r="D60">
-        <v>0.01909069987739171</v>
+        <v>-0.06423175145086418</v>
       </c>
       <c r="E60">
-        <v>-0.08164419102224617</v>
+        <v>0.01144624823085837</v>
       </c>
       <c r="F60">
-        <v>0.1299625768914062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1780006748258139</v>
+      </c>
+      <c r="G60">
+        <v>-0.3505021902911289</v>
+      </c>
+      <c r="H60">
+        <v>0.03237165618004877</v>
+      </c>
+      <c r="I60">
+        <v>-0.04913478149800279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03761050355087428</v>
+        <v>-0.03794220343059822</v>
       </c>
       <c r="C61">
-        <v>-0.006071297762776296</v>
+        <v>-0.03359367954837068</v>
       </c>
       <c r="D61">
-        <v>-0.01695086106779527</v>
+        <v>0.005505065061565006</v>
       </c>
       <c r="E61">
-        <v>0.004441968225678787</v>
+        <v>0.01242409227304143</v>
       </c>
       <c r="F61">
-        <v>0.04591095219521558</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.04100617716809671</v>
+      </c>
+      <c r="G61">
+        <v>-0.01635746475778789</v>
+      </c>
+      <c r="H61">
+        <v>-0.01062155355783571</v>
+      </c>
+      <c r="I61">
+        <v>-0.01392337894556044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03553592210286066</v>
+        <v>-0.02736465721768111</v>
       </c>
       <c r="C63">
-        <v>8.404061212121076e-05</v>
+        <v>-0.02315756907878273</v>
       </c>
       <c r="D63">
-        <v>-0.03033269470129411</v>
+        <v>0.002289379089827097</v>
       </c>
       <c r="E63">
-        <v>-0.003544086310154981</v>
+        <v>0.01632329992484392</v>
       </c>
       <c r="F63">
-        <v>0.05350448972292095</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03419155406426264</v>
+      </c>
+      <c r="G63">
+        <v>0.04866729923857691</v>
+      </c>
+      <c r="H63">
+        <v>-0.01160827037265949</v>
+      </c>
+      <c r="I63">
+        <v>-0.02913301944503441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05703265023327572</v>
+        <v>-0.05481104847688548</v>
       </c>
       <c r="C64">
-        <v>-0.01158266843633507</v>
+        <v>-0.03574218856951054</v>
       </c>
       <c r="D64">
-        <v>-0.04199503374882157</v>
+        <v>0.01565701049150788</v>
       </c>
       <c r="E64">
-        <v>0.03344572872379822</v>
+        <v>0.02028253002516681</v>
       </c>
       <c r="F64">
-        <v>0.04532952396924304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04187801084177443</v>
+      </c>
+      <c r="G64">
+        <v>0.02181157189824749</v>
+      </c>
+      <c r="H64">
+        <v>-0.06304123132277671</v>
+      </c>
+      <c r="I64">
+        <v>-0.04638059863234052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02963446315221792</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01241818632633146</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.006240055611904864</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.008108712174446236</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.004876691917000134</v>
+      </c>
+      <c r="G65">
+        <v>-0.02520382820425152</v>
+      </c>
+      <c r="H65">
+        <v>0.01606441079500694</v>
+      </c>
+      <c r="I65">
+        <v>-0.008985261299756049</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.06993001909795248</v>
+        <v>-0.06190339566202024</v>
       </c>
       <c r="C66">
-        <v>-0.002580516307115436</v>
+        <v>-0.06025611317899394</v>
       </c>
       <c r="D66">
-        <v>-0.05987379721101313</v>
+        <v>-0.004989209950024822</v>
       </c>
       <c r="E66">
-        <v>0.004014528549461056</v>
+        <v>0.04378907658291415</v>
       </c>
       <c r="F66">
-        <v>0.08314780147222572</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06964486227887473</v>
+      </c>
+      <c r="G66">
+        <v>-0.01106811357068775</v>
+      </c>
+      <c r="H66">
+        <v>-0.009030899267435914</v>
+      </c>
+      <c r="I66">
+        <v>-0.06809529624504738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05128936607246128</v>
+        <v>-0.04865612712404305</v>
       </c>
       <c r="C67">
-        <v>0.01378457944670559</v>
+        <v>8.424152509617582e-05</v>
       </c>
       <c r="D67">
-        <v>-0.001342686811983697</v>
+        <v>-0.001718589330371845</v>
       </c>
       <c r="E67">
-        <v>0.0056946632549327</v>
+        <v>0.007348687577317172</v>
       </c>
       <c r="F67">
-        <v>0.02724257247227523</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03914703771402748</v>
+      </c>
+      <c r="G67">
+        <v>-0.008293607603945333</v>
+      </c>
+      <c r="H67">
+        <v>-0.04310701315820489</v>
+      </c>
+      <c r="I67">
+        <v>0.008023147948575426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06220630173678268</v>
+        <v>-0.07231888660917041</v>
       </c>
       <c r="C68">
-        <v>0.1588086400492735</v>
+        <v>0.2317383286215574</v>
       </c>
       <c r="D68">
-        <v>0.1856235411038062</v>
+        <v>-0.0535257743917228</v>
       </c>
       <c r="E68">
-        <v>-0.04811941197195824</v>
+        <v>-0.03671214230300841</v>
       </c>
       <c r="F68">
-        <v>0.01899737228772948</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02390832987277749</v>
+      </c>
+      <c r="G68">
+        <v>0.04446587166842843</v>
+      </c>
+      <c r="H68">
+        <v>0.008344619143946639</v>
+      </c>
+      <c r="I68">
+        <v>0.01064021887682849</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07567020174700421</v>
+        <v>-0.06915966516231013</v>
       </c>
       <c r="C69">
-        <v>0.01024971730154898</v>
+        <v>-0.0251147578362667</v>
       </c>
       <c r="D69">
-        <v>-0.03340738673113</v>
+        <v>-0.00169464674894057</v>
       </c>
       <c r="E69">
-        <v>0.001236408197187416</v>
+        <v>0.03121424669177561</v>
       </c>
       <c r="F69">
-        <v>-0.004695468793656312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003666020563128937</v>
+      </c>
+      <c r="G69">
+        <v>0.04192876345991564</v>
+      </c>
+      <c r="H69">
+        <v>-0.02708796261886028</v>
+      </c>
+      <c r="I69">
+        <v>-0.01907666505323394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06009923419584402</v>
+        <v>-0.06896221138863143</v>
       </c>
       <c r="C71">
-        <v>0.1957817637223271</v>
+        <v>0.2584880743873803</v>
       </c>
       <c r="D71">
-        <v>0.2228576284132204</v>
+        <v>-0.06300573666639044</v>
       </c>
       <c r="E71">
-        <v>-0.09355019878089749</v>
+        <v>-0.04995568360620632</v>
       </c>
       <c r="F71">
-        <v>0.05498235122448555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04992497699175313</v>
+      </c>
+      <c r="G71">
+        <v>0.03906430773447685</v>
+      </c>
+      <c r="H71">
+        <v>-0.0143939562398092</v>
+      </c>
+      <c r="I71">
+        <v>-0.01820364890381153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1325445113901179</v>
+        <v>-0.1366344495617989</v>
       </c>
       <c r="C72">
-        <v>0.05148190393192437</v>
+        <v>-0.04301884797363975</v>
       </c>
       <c r="D72">
-        <v>-0.04674033841808937</v>
+        <v>-0.01066788038188088</v>
       </c>
       <c r="E72">
-        <v>-0.00104158629078438</v>
+        <v>0.07791928519804561</v>
       </c>
       <c r="F72">
-        <v>0.08080093314976063</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.09943154569649057</v>
+      </c>
+      <c r="G72">
+        <v>-0.110346892882648</v>
+      </c>
+      <c r="H72">
+        <v>0.01935966425891683</v>
+      </c>
+      <c r="I72">
+        <v>0.1389682358471146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2843280852515134</v>
+        <v>-0.2821947151616219</v>
       </c>
       <c r="C73">
-        <v>0.0981040329476581</v>
+        <v>0.05346211838751179</v>
       </c>
       <c r="D73">
-        <v>0.08758220867996727</v>
+        <v>-0.1056819793845453</v>
       </c>
       <c r="E73">
-        <v>-0.1140118676104822</v>
+        <v>-0.03462250853108488</v>
       </c>
       <c r="F73">
-        <v>0.2285890390626976</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2612564181855875</v>
+      </c>
+      <c r="G73">
+        <v>-0.524936481404921</v>
+      </c>
+      <c r="H73">
+        <v>0.1079680772220749</v>
+      </c>
+      <c r="I73">
+        <v>-0.01959569890093511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1482137677843656</v>
+        <v>-0.1455121667280423</v>
       </c>
       <c r="C74">
-        <v>0.0118022073558002</v>
+        <v>-0.04761961680942438</v>
       </c>
       <c r="D74">
-        <v>-0.0472060851004835</v>
+        <v>-0.001351026801677831</v>
       </c>
       <c r="E74">
-        <v>0.001224791873509668</v>
+        <v>0.05049489165913891</v>
       </c>
       <c r="F74">
-        <v>-0.05291439449897389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07612824702573499</v>
+      </c>
+      <c r="G74">
+        <v>-0.007103705747579931</v>
+      </c>
+      <c r="H74">
+        <v>0.02002315165502123</v>
+      </c>
+      <c r="I74">
+        <v>-0.07744763949869306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2300590789118308</v>
+        <v>-0.2501069882224855</v>
       </c>
       <c r="C75">
-        <v>0.05026266151025427</v>
+        <v>-0.0532440419022134</v>
       </c>
       <c r="D75">
-        <v>-0.09505172206743639</v>
+        <v>-0.01980506112166656</v>
       </c>
       <c r="E75">
-        <v>-0.008020676986254433</v>
+        <v>0.1189974015724477</v>
       </c>
       <c r="F75">
-        <v>-0.1429885985690059</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1479906992173963</v>
+      </c>
+      <c r="G75">
+        <v>0.01025125702354135</v>
+      </c>
+      <c r="H75">
+        <v>-0.007692099170585148</v>
+      </c>
+      <c r="I75">
+        <v>-0.01677369638978042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2580859301957963</v>
+        <v>-0.2612620027031265</v>
       </c>
       <c r="C76">
-        <v>0.07915595144346717</v>
+        <v>-0.03694616433439194</v>
       </c>
       <c r="D76">
-        <v>-0.07780527663606063</v>
+        <v>0.01788572781069699</v>
       </c>
       <c r="E76">
-        <v>0.05889037167860594</v>
+        <v>0.1405726587777374</v>
       </c>
       <c r="F76">
-        <v>-0.1378487383111359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1938747482142383</v>
+      </c>
+      <c r="G76">
+        <v>0.02187632009576245</v>
+      </c>
+      <c r="H76">
+        <v>0.07281938041526169</v>
+      </c>
+      <c r="I76">
+        <v>-0.02127970348755843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1422037455399232</v>
+        <v>-0.1116715959945328</v>
       </c>
       <c r="C77">
-        <v>-0.0798964391353115</v>
+        <v>-0.07423576889266326</v>
       </c>
       <c r="D77">
-        <v>-0.02538034280961548</v>
+        <v>0.002112141895810836</v>
       </c>
       <c r="E77">
-        <v>-0.02108917686517735</v>
+        <v>-0.04842036826919058</v>
       </c>
       <c r="F77">
-        <v>0.1909609795858041</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1651178664362558</v>
+      </c>
+      <c r="G77">
+        <v>0.236144779338319</v>
+      </c>
+      <c r="H77">
+        <v>-0.005400912363872105</v>
+      </c>
+      <c r="I77">
+        <v>-0.231173631682022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08808581539670025</v>
+        <v>-0.06636448760224625</v>
       </c>
       <c r="C78">
-        <v>-0.05123075430410173</v>
+        <v>-0.07030632095681358</v>
       </c>
       <c r="D78">
-        <v>-0.05980901983095721</v>
+        <v>0.01251288649378778</v>
       </c>
       <c r="E78">
-        <v>0.01124338806198599</v>
+        <v>0.01289251906570113</v>
       </c>
       <c r="F78">
-        <v>0.05069523351799481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07523368282144073</v>
+      </c>
+      <c r="G78">
+        <v>0.02193881501856251</v>
+      </c>
+      <c r="H78">
+        <v>-0.02739460216733301</v>
+      </c>
+      <c r="I78">
+        <v>-0.03854987236637986</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1144962773598198</v>
+        <v>-0.14102872926134</v>
       </c>
       <c r="C80">
-        <v>-0.07368768120629708</v>
+        <v>0.1945248003418618</v>
       </c>
       <c r="D80">
-        <v>0.2876829752650577</v>
+        <v>0.9560177532995563</v>
       </c>
       <c r="E80">
-        <v>0.9228329793655645</v>
+        <v>-0.03561268154112041</v>
       </c>
       <c r="F80">
-        <v>0.06554697873968238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06924241457945379</v>
+      </c>
+      <c r="G80">
+        <v>-0.05752502339150295</v>
+      </c>
+      <c r="H80">
+        <v>-0.03300255971870365</v>
+      </c>
+      <c r="I80">
+        <v>0.08463215777827902</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1602072673889152</v>
+        <v>-0.1837619870374675</v>
       </c>
       <c r="C81">
-        <v>0.04333869135542313</v>
+        <v>-0.0310207270896974</v>
       </c>
       <c r="D81">
-        <v>-0.06287011795777617</v>
+        <v>0.001005480990944916</v>
       </c>
       <c r="E81">
-        <v>0.0208822412514433</v>
+        <v>0.09928533293657588</v>
       </c>
       <c r="F81">
-        <v>-0.1615120565742238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1505887437544234</v>
+      </c>
+      <c r="G81">
+        <v>0.03677781468335928</v>
+      </c>
+      <c r="H81">
+        <v>0.03035923476374763</v>
+      </c>
+      <c r="I81">
+        <v>0.002897769335844373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0724033447641687</v>
+        <v>-0.05770030115272774</v>
       </c>
       <c r="C83">
-        <v>-0.0727481810038305</v>
+        <v>-0.0525244050720658</v>
       </c>
       <c r="D83">
-        <v>-0.03828388781132135</v>
+        <v>-0.003851330992858954</v>
       </c>
       <c r="E83">
-        <v>-0.01959056388614254</v>
+        <v>-0.02339761456143948</v>
       </c>
       <c r="F83">
-        <v>0.02433872980469132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04434129726483639</v>
+      </c>
+      <c r="G83">
+        <v>0.03214142909031799</v>
+      </c>
+      <c r="H83">
+        <v>-0.05501740735136074</v>
+      </c>
+      <c r="I83">
+        <v>-0.04648741356464427</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2271783112692601</v>
+        <v>-0.2425919053538177</v>
       </c>
       <c r="C85">
-        <v>0.01635883373715557</v>
+        <v>-0.07261656324198272</v>
       </c>
       <c r="D85">
-        <v>-0.09014838582182161</v>
+        <v>0.002568076851093521</v>
       </c>
       <c r="E85">
-        <v>0.05191537021737175</v>
+        <v>0.1095297219409473</v>
       </c>
       <c r="F85">
-        <v>-0.1692479169999604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1945245219754926</v>
+      </c>
+      <c r="G85">
+        <v>0.04522066354328208</v>
+      </c>
+      <c r="H85">
+        <v>0.01833707003591582</v>
+      </c>
+      <c r="I85">
+        <v>-0.02357834657495343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.03312802202634631</v>
+        <v>-0.0237459418788542</v>
       </c>
       <c r="C86">
-        <v>-0.03147020021058015</v>
+        <v>-0.05297289050423695</v>
       </c>
       <c r="D86">
-        <v>-0.05347903200966284</v>
+        <v>0.004862225776147751</v>
       </c>
       <c r="E86">
-        <v>-0.005040103174740147</v>
+        <v>0.0120498523745263</v>
       </c>
       <c r="F86">
-        <v>0.08541406017737235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08357853268606016</v>
+      </c>
+      <c r="G86">
+        <v>0.05676668000665316</v>
+      </c>
+      <c r="H86">
+        <v>-0.01604543584687373</v>
+      </c>
+      <c r="I86">
+        <v>-0.06393849434330817</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.018591521312692</v>
+        <v>-0.02521292211302588</v>
       </c>
       <c r="C87">
-        <v>0.0264301909611225</v>
+        <v>0.00881707367355573</v>
       </c>
       <c r="D87">
-        <v>0.03258023531074122</v>
+        <v>0.000826508818943858</v>
       </c>
       <c r="E87">
-        <v>-0.01150893452751268</v>
+        <v>-0.004172563811823273</v>
       </c>
       <c r="F87">
-        <v>0.09822686924265217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1091805705530615</v>
+      </c>
+      <c r="G87">
+        <v>0.01773236721025925</v>
+      </c>
+      <c r="H87">
+        <v>0.01117144269404476</v>
+      </c>
+      <c r="I87">
+        <v>-0.05376103277105711</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02911178507918341</v>
+        <v>-0.03713623040464313</v>
       </c>
       <c r="C88">
-        <v>-0.005614559756405219</v>
+        <v>-0.009496078275434906</v>
       </c>
       <c r="D88">
-        <v>-0.026518253606386</v>
+        <v>0.004478058605496522</v>
       </c>
       <c r="E88">
-        <v>0.02501715951346265</v>
+        <v>0.01379519346372858</v>
       </c>
       <c r="F88">
-        <v>-0.006233254222690577</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005384725512494722</v>
+      </c>
+      <c r="G88">
+        <v>0.01272941776276586</v>
+      </c>
+      <c r="H88">
+        <v>-0.05308427621028379</v>
+      </c>
+      <c r="I88">
+        <v>-0.006417226487836118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.0897386441507378</v>
+        <v>-0.1155137833201818</v>
       </c>
       <c r="C89">
-        <v>0.2128231970734366</v>
+        <v>0.3657816504969892</v>
       </c>
       <c r="D89">
-        <v>0.2904647245583041</v>
+        <v>-0.108239395432505</v>
       </c>
       <c r="E89">
-        <v>-0.112960630838971</v>
+        <v>-0.06720424113510913</v>
       </c>
       <c r="F89">
-        <v>0.01891959041081053</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02813537462421028</v>
+      </c>
+      <c r="G89">
+        <v>0.1019734515603131</v>
+      </c>
+      <c r="H89">
+        <v>-0.03671752866675104</v>
+      </c>
+      <c r="I89">
+        <v>-0.04302408919646533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06808221856418183</v>
+        <v>-0.07694441223460148</v>
       </c>
       <c r="C90">
-        <v>0.1973649436390174</v>
+        <v>0.3300027062488542</v>
       </c>
       <c r="D90">
-        <v>0.2678731671906643</v>
+        <v>-0.0764428184407403</v>
       </c>
       <c r="E90">
-        <v>-0.04724355857053401</v>
+        <v>-0.0618500919291648</v>
       </c>
       <c r="F90">
-        <v>0.03558779107584756</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.00877110664105096</v>
+      </c>
+      <c r="G90">
+        <v>0.08469438637417871</v>
+      </c>
+      <c r="H90">
+        <v>-0.01832225202117067</v>
+      </c>
+      <c r="I90">
+        <v>-0.007882262106821386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2828810436314267</v>
+        <v>-0.2876072591020974</v>
       </c>
       <c r="C91">
-        <v>0.01331957111000954</v>
+        <v>-0.09478308656030909</v>
       </c>
       <c r="D91">
-        <v>-0.1216824077667904</v>
+        <v>0.001870437980157034</v>
       </c>
       <c r="E91">
-        <v>0.04984849168312322</v>
+        <v>0.1135864278362692</v>
       </c>
       <c r="F91">
-        <v>-0.2585708117493501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2683232551358239</v>
+      </c>
+      <c r="G91">
+        <v>0.04310058377432615</v>
+      </c>
+      <c r="H91">
+        <v>0.06076581906860659</v>
+      </c>
+      <c r="I91">
+        <v>-0.02505743507246686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1023249505017432</v>
+        <v>-0.1569392363876192</v>
       </c>
       <c r="C92">
-        <v>0.1685470095576603</v>
+        <v>0.3489308924007219</v>
       </c>
       <c r="D92">
-        <v>0.3070849828395486</v>
+        <v>-0.06247901657803363</v>
       </c>
       <c r="E92">
-        <v>-0.02781097537120685</v>
+        <v>-0.08898985889487609</v>
       </c>
       <c r="F92">
-        <v>-0.05345882493871353</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09918663539146963</v>
+      </c>
+      <c r="G92">
+        <v>0.2678830452151953</v>
+      </c>
+      <c r="H92">
+        <v>-0.04767458637632973</v>
+      </c>
+      <c r="I92">
+        <v>0.03866796916828938</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.06444246524897941</v>
+        <v>-0.09695152285139469</v>
       </c>
       <c r="C93">
-        <v>0.2291653066130025</v>
+        <v>0.386787136277843</v>
       </c>
       <c r="D93">
-        <v>0.3126053401366921</v>
+        <v>-0.09851170780866529</v>
       </c>
       <c r="E93">
-        <v>-0.06410634197202505</v>
+        <v>-0.09635975309210149</v>
       </c>
       <c r="F93">
-        <v>-0.03499631469458794</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.02309548187027986</v>
+      </c>
+      <c r="G93">
+        <v>0.03087194839511201</v>
+      </c>
+      <c r="H93">
+        <v>-0.04875992428412296</v>
+      </c>
+      <c r="I93">
+        <v>0.03411277426594822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2796097935021759</v>
+        <v>-0.3076523252584061</v>
       </c>
       <c r="C94">
-        <v>0.07477376693642807</v>
+        <v>-0.01002346920976544</v>
       </c>
       <c r="D94">
-        <v>-0.01140649412258939</v>
+        <v>-0.03441219307601463</v>
       </c>
       <c r="E94">
-        <v>0.01292806469347244</v>
+        <v>0.1199894488023249</v>
       </c>
       <c r="F94">
-        <v>-0.2241817414816543</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2658358097705902</v>
+      </c>
+      <c r="G94">
+        <v>0.09683383207898308</v>
+      </c>
+      <c r="H94">
+        <v>0.1969768993385875</v>
+      </c>
+      <c r="I94">
+        <v>-0.02134569519782917</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1670172364878414</v>
+        <v>-0.1302342726767608</v>
       </c>
       <c r="C95">
-        <v>-0.04393139812104929</v>
+        <v>-0.08058969214950563</v>
       </c>
       <c r="D95">
-        <v>-0.09050587669218425</v>
+        <v>-0.07121623493690649</v>
       </c>
       <c r="E95">
-        <v>-0.06022741883214906</v>
+        <v>0.0324172522257293</v>
       </c>
       <c r="F95">
-        <v>-0.465253043382065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08275401332193981</v>
+      </c>
+      <c r="G95">
+        <v>-0.09564820842086229</v>
+      </c>
+      <c r="H95">
+        <v>-0.8842563296143522</v>
+      </c>
+      <c r="I95">
+        <v>0.3195030192762264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2093434472098424</v>
+        <v>-0.2155217691543792</v>
       </c>
       <c r="C98">
-        <v>0.05579520625253445</v>
+        <v>0.04557734767312122</v>
       </c>
       <c r="D98">
-        <v>0.05305257509735631</v>
+        <v>-0.07555119730433695</v>
       </c>
       <c r="E98">
-        <v>-0.08945027172909203</v>
+        <v>-0.0250646536808141</v>
       </c>
       <c r="F98">
-        <v>0.04905562159401092</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1676136872050286</v>
+      </c>
+      <c r="G98">
+        <v>-0.3831331725370178</v>
+      </c>
+      <c r="H98">
+        <v>0.05214067137604792</v>
+      </c>
+      <c r="I98">
+        <v>0.01937675080048965</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02907537168090623</v>
+        <v>-0.01612751610754556</v>
       </c>
       <c r="C101">
-        <v>-0.0001550744598530074</v>
+        <v>-0.03231424229482091</v>
       </c>
       <c r="D101">
-        <v>-0.04546755488691119</v>
+        <v>0.008873157775652792</v>
       </c>
       <c r="E101">
-        <v>0.01949085440548759</v>
+        <v>0.0368754294144506</v>
       </c>
       <c r="F101">
-        <v>0.02921633674104337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07695609492323702</v>
+      </c>
+      <c r="G101">
+        <v>0.1021439957352252</v>
+      </c>
+      <c r="H101">
+        <v>0.004356145417089841</v>
+      </c>
+      <c r="I101">
+        <v>0.126917879437956</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09511364706619121</v>
+        <v>-0.1155396110192246</v>
       </c>
       <c r="C102">
-        <v>0.01261939258602872</v>
+        <v>-0.03472343793138433</v>
       </c>
       <c r="D102">
-        <v>-0.0632995077889501</v>
+        <v>0.009914290726174094</v>
       </c>
       <c r="E102">
-        <v>0.04024720128245371</v>
+        <v>0.05764288371933436</v>
       </c>
       <c r="F102">
-        <v>-0.08606029411201306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1095058721737274</v>
+      </c>
+      <c r="G102">
+        <v>0.01963348226958011</v>
+      </c>
+      <c r="H102">
+        <v>0.00601935282110381</v>
+      </c>
+      <c r="I102">
+        <v>-0.02782910796426481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02142099643703298</v>
+        <v>-0.02826560701543965</v>
       </c>
       <c r="C103">
-        <v>0.006587464624855645</v>
+        <v>-0.01228601039005127</v>
       </c>
       <c r="D103">
-        <v>-0.02454540059076642</v>
+        <v>0.01104256900688163</v>
       </c>
       <c r="E103">
-        <v>0.01127513415656426</v>
+        <v>0.02065621992948335</v>
       </c>
       <c r="F103">
-        <v>-0.02342028863290409</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02013413886239472</v>
+      </c>
+      <c r="G103">
+        <v>0.01802866511929463</v>
+      </c>
+      <c r="H103">
+        <v>-0.00766093244838033</v>
+      </c>
+      <c r="I103">
+        <v>-0.01559918513812169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
